--- a/data/trans_dic/ProbViv_temp-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.3579352599240127</v>
+        <v>0.3579352599240126</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.3085016102235613</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3230909098651496</v>
+        <v>0.3191747150252813</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2800418121962857</v>
+        <v>0.2805484592737253</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3071666589787875</v>
+        <v>0.3062523439899451</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3950175864949248</v>
+        <v>0.3940893651330325</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3360006403647999</v>
+        <v>0.335725246561383</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3556022264459017</v>
+        <v>0.3552405522406804</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3725547200505313</v>
+        <v>0.3734437829089379</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3966698653219976</v>
+        <v>0.3984092926127329</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3943820308722022</v>
+        <v>0.3938522884392654</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4389982012672167</v>
+        <v>0.4422872523515172</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.45218973871965</v>
+        <v>0.4536177164392021</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4356076499543132</v>
+        <v>0.4388269811704303</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.3215660190145229</v>
+        <v>0.321566019014523</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3347305499003462</v>
+        <v>0.3347305499003463</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.3281857149529697</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2880746869741905</v>
+        <v>0.2846023789296697</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3055137129309513</v>
+        <v>0.305923911081784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.303712481981528</v>
+        <v>0.3034321790560859</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3604459017933066</v>
+        <v>0.3581740208224842</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3668563750870077</v>
+        <v>0.3635235200013259</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3531924388887556</v>
+        <v>0.3502605886023224</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4815272782891756</v>
+        <v>0.4820960485791305</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.499595731215974</v>
+        <v>0.4967302571387304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4989266083395651</v>
+        <v>0.4978992452518748</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5507259292606266</v>
+        <v>0.5485650959466193</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5531132619706058</v>
+        <v>0.5502676923293425</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5417364191696087</v>
+        <v>0.5402453487586262</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.4080403241113238</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4122333133974437</v>
+        <v>0.4122333133974438</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.4101957052322419</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3901073527470103</v>
+        <v>0.3910085410931284</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3977018088163591</v>
+        <v>0.3980228111525564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3991001247226397</v>
+        <v>0.3990838728883068</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4263322687827732</v>
+        <v>0.4256956801310873</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4259785805983489</v>
+        <v>0.427565878328287</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4221968409314865</v>
+        <v>0.4234304688467354</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>223162</v>
+        <v>220457</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>205601</v>
+        <v>205973</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>437678</v>
+        <v>436376</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>272843</v>
+        <v>272201</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>246685</v>
+        <v>246483</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>506694</v>
+        <v>506178</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>390779</v>
+        <v>391712</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>425021</v>
+        <v>426885</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>836244</v>
+        <v>835121</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>460473</v>
+        <v>463923</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>484510</v>
+        <v>486040</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>923659</v>
+        <v>930485</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>231345</v>
+        <v>228556</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>248156</v>
+        <v>248489</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>490596</v>
+        <v>490144</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>289464</v>
+        <v>287640</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>297982</v>
+        <v>295275</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>570523</v>
+        <v>565787</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>476742</v>
+        <v>477305</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>559068</v>
+        <v>555862</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1052288</v>
+        <v>1050121</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>545253</v>
+        <v>543113</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>618956</v>
+        <v>615772</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1142578</v>
+        <v>1139434</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1378156</v>
+        <v>1381340</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1486193</v>
+        <v>1487393</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2901345</v>
+        <v>2901226</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1506130</v>
+        <v>1503882</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1591862</v>
+        <v>1597794</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3069251</v>
+        <v>3078219</v>
       </c>
     </row>
     <row r="24">
